--- a/storage/whs for upload.xlsx
+++ b/storage/whs for upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\handicapping\storage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08AA3BD0-A434-460C-844D-7A3D0DABB6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C48B4EF-445D-473E-A7A2-7857783BDC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{4505A0AB-6763-44B0-B447-0FC0626D1B4E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4505A0AB-6763-44B0-B447-0FC0626D1B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="MEN" sheetId="1" r:id="rId1"/>
@@ -4396,10 +4396,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>handicap_index</t>
-  </si>
-  <si>
     <t>sex</t>
+  </si>
+  <si>
+    <t>whs_handicap_index</t>
   </si>
 </sst>
 </file>
@@ -5263,7 +5263,7 @@
   <dimension ref="A1:D1455"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5281,10 +5281,10 @@
         <v>1456</v>
       </c>
       <c r="C1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1" t="s">
         <v>1457</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
